--- a/biology/Botanique/Jardin_Berthe-Weill/Jardin_Berthe-Weill.xlsx
+++ b/biology/Botanique/Jardin_Berthe-Weill/Jardin_Berthe-Weill.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin Berthe-Weill est un espace vert du 3e arrondissement de Paris.
@@ -512,9 +524,11 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Situé à proximité du musée Picasso, le site est accessible par le 2 rue de la Perle[1] et le 3 rue de Thorigny[2] et desservi par la station de métro Saint-Paul. Ce jardin est adjacent au musée Picasso, détail symbolique rendant hommage au soutien de la marchande durant les débuts de l'artiste à son arrivée à Paris en 1900. Il s'agit d'un jardin dédié à la lecture, avec plusieurs bancs et une boîte à livres, rendant hommage à l'activité d'éditrice de la galeriste.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Situé à proximité du musée Picasso, le site est accessible par le 2 rue de la Perle et le 3 rue de Thorigny et desservi par la station de métro Saint-Paul. Ce jardin est adjacent au musée Picasso, détail symbolique rendant hommage au soutien de la marchande durant les débuts de l'artiste à son arrivée à Paris en 1900. Il s'agit d'un jardin dédié à la lecture, avec plusieurs bancs et une boîte à livres, rendant hommage à l'activité d'éditrice de la galeriste.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il porte le nom de Berthe Weill (1865-1951) une marchande d'art française. Ce nom a été retenu après une votation citoyenne initiée par la Mairie du IIIe arrondissement de Paris, dont elle est sortie gagnante, grâce à la mobilisation de l'historienne de l'art Marianne Le Morvan. 
 </t>
@@ -574,9 +590,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce jardin a été ouvert en mars 2019 sur une « dent creuse » de 350 m2[3], et présente une plaque commémorative présentant brièvement le parcours de Berthe Weill.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce jardin a été ouvert en mars 2019 sur une « dent creuse » de 350 m2, et présente une plaque commémorative présentant brièvement le parcours de Berthe Weill.
 </t>
         </is>
       </c>
